--- a/src/test/resource/Cargurus testdata.xlsx
+++ b/src/test/resource/Cargurus testdata.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeyanthi\eclipse-workspace\CarGurus\src\test\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C8ABB6-4D79-4A02-927D-C39DBF1973CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FD622F-6E22-41B6-847E-0D7237EE5ACB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2843BACB-A590-4C29-B915-258714D0F815}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{2843BACB-A590-4C29-B915-258714D0F815}"/>
   </bookViews>
   <sheets>
-    <sheet name="search" sheetId="1" r:id="rId1"/>
-    <sheet name="style" sheetId="3" r:id="rId2"/>
-    <sheet name="Price" sheetId="2" r:id="rId3"/>
+    <sheet name="search2" sheetId="1" r:id="rId1"/>
+    <sheet name="search" sheetId="4" r:id="rId2"/>
+    <sheet name="style" sheetId="3" r:id="rId3"/>
+    <sheet name="Price" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
   <si>
     <t>Make</t>
   </si>
@@ -81,15 +81,6 @@
     <t>25 mi</t>
   </si>
   <si>
-    <t>sedan</t>
-  </si>
-  <si>
-    <t>wagon</t>
-  </si>
-  <si>
-    <t>suv/cross over</t>
-  </si>
-  <si>
     <t>any</t>
   </si>
   <si>
@@ -114,22 +105,64 @@
     <t>$10,000</t>
   </si>
   <si>
-    <t>$25,000</t>
-  </si>
-  <si>
     <t>$18,000</t>
   </si>
   <si>
     <t>Max Milelage</t>
+  </si>
+  <si>
+    <t>72712</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>Sedan</t>
+  </si>
+  <si>
+    <t>Wagon</t>
+  </si>
+  <si>
+    <t>SUV / Crossover</t>
+  </si>
+  <si>
+    <t>75 mi</t>
+  </si>
+  <si>
+    <t>$24,000</t>
+  </si>
+  <si>
+    <t>50,000</t>
+  </si>
+  <si>
+    <t>$26,000</t>
+  </si>
+  <si>
+    <t>$28,000</t>
+  </si>
+  <si>
+    <t>70,000</t>
+  </si>
+  <si>
+    <t>20,000</t>
+  </si>
+  <si>
+    <t>$35,000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,13 +213,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -510,7 +542,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,22 +552,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -546,11 +578,11 @@
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -564,13 +596,13 @@
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -587,153 +619,205 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A02A529-78DC-4F1F-B77D-2935ADED564B}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01C93D6-7B67-416B-B4FF-E79122F725BF}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="8.88671875" style="1"/>
     <col min="6" max="6" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="G4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="4">
-        <v>60195</v>
-      </c>
-      <c r="C2" s="4">
-        <v>25</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2015</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2017</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="5">
-        <v>24000</v>
-      </c>
-      <c r="H2" s="4">
-        <v>50000</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="4">
-        <v>30004</v>
-      </c>
-      <c r="C3" s="4">
-        <v>50</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2016</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2018</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="5">
-        <v>36000</v>
-      </c>
-      <c r="H3" s="4">
-        <v>75000</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4">
-        <v>72712</v>
-      </c>
-      <c r="C4" s="4">
-        <v>75</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2018</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2019</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="5">
-        <v>25000</v>
-      </c>
-      <c r="H4" s="4">
-        <v>25000</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="F2:F4" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BC3D4B-A58C-4120-BCBB-2CCA4409D3CB}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,115 +830,115 @@
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>60195</v>
-      </c>
-      <c r="B2" s="4">
-        <v>25</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2015</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2017</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="4">
-        <v>24000</v>
-      </c>
-      <c r="G2" s="4">
-        <v>50000</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>30004</v>
-      </c>
-      <c r="B3" s="4">
-        <v>50</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2016</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2018</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="4">
-        <v>36000</v>
-      </c>
-      <c r="G3" s="4">
-        <v>75000</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>72712</v>
-      </c>
-      <c r="B4" s="4">
-        <v>75</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2018</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2019</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="4">
-        <v>25000</v>
-      </c>
-      <c r="G4" s="4">
-        <v>25000</v>
+      <c r="F4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E2:E4" numberStoredAsText="1"/>
+    <ignoredError sqref="E2 E4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>